--- a/category-country.xlsx
+++ b/category-country.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\AFC-2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1747175-4BB5-481F-A9D2-33F25E8270EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -34,9 +40,6 @@
     <t>Physics</t>
   </si>
   <si>
-    <t>country</t>
-  </si>
-  <si>
     <t>Australia</t>
   </si>
   <si>
@@ -104,13 +107,16 @@
   </si>
   <si>
     <t>the Netherlands</t>
+  </si>
+  <si>
+    <t>country \ Category</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,13 +179,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -217,7 +231,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -251,6 +265,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -285,9 +300,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -460,16 +476,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -490,9 +508,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -513,9 +531,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -536,9 +554,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -559,55 +577,55 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -628,9 +646,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -651,9 +669,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>33</v>
@@ -674,32 +692,32 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -720,9 +738,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -743,9 +761,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>6</v>
@@ -766,32 +784,32 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -812,9 +830,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -835,32 +853,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>3</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -881,9 +899,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -904,9 +922,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>7</v>
@@ -927,9 +945,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>86</v>
@@ -950,9 +968,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>29</v>
@@ -973,9 +991,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -996,9 +1014,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24">
         <v>1</v>
